--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H2">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9024289107934966</v>
       </c>
       <c r="Q2">
-        <v>0.7107934054867778</v>
+        <v>0.5167773820195555</v>
       </c>
       <c r="R2">
-        <v>6.397140649381001</v>
+        <v>4.650996438176</v>
       </c>
       <c r="S2">
-        <v>0.1561584455512269</v>
+        <v>0.1191623160402094</v>
       </c>
       <c r="T2">
-        <v>0.1561584455512269</v>
+        <v>0.1191623160402094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H3">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>0.09757108920650338</v>
       </c>
       <c r="Q3">
-        <v>0.07685135742511111</v>
+        <v>0.05587424276622222</v>
       </c>
       <c r="R3">
-        <v>0.691662216826</v>
+        <v>0.5028681848959999</v>
       </c>
       <c r="S3">
-        <v>0.01688393339241572</v>
+        <v>0.012883892381273</v>
       </c>
       <c r="T3">
-        <v>0.01688393339241572</v>
+        <v>0.012883892381273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6.213034</v>
       </c>
       <c r="I4">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J4">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>24.095444376106</v>
       </c>
       <c r="S4">
-        <v>0.5881857762503396</v>
+        <v>0.6173449057726792</v>
       </c>
       <c r="T4">
-        <v>0.5881857762503397</v>
+        <v>0.6173449057726793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.213034</v>
       </c>
       <c r="I5">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J5">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,10 +756,10 @@
         <v>2.605212138676</v>
       </c>
       <c r="S5">
-        <v>0.06359495596617792</v>
+        <v>0.06674765641025671</v>
       </c>
       <c r="T5">
-        <v>0.06359495596617794</v>
+        <v>0.06674765641025671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H6">
         <v>1.669856</v>
       </c>
       <c r="I6">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J6">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,16 +812,16 @@
         <v>0.9024289107934966</v>
       </c>
       <c r="Q6">
-        <v>0.7195611742115554</v>
+        <v>0.7195611742115555</v>
       </c>
       <c r="R6">
-        <v>6.476050567903999</v>
+        <v>6.476050567904</v>
       </c>
       <c r="S6">
-        <v>0.15808468899193</v>
+        <v>0.1659216889806081</v>
       </c>
       <c r="T6">
-        <v>0.15808468899193</v>
+        <v>0.1659216889806081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H7">
         <v>1.669856</v>
       </c>
       <c r="I7">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J7">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -874,16 +874,16 @@
         <v>0.09757108920650338</v>
       </c>
       <c r="Q7">
-        <v>0.07779933319822221</v>
+        <v>0.07779933319822223</v>
       </c>
       <c r="R7">
-        <v>0.7001939987839999</v>
+        <v>0.700193998784</v>
       </c>
       <c r="S7">
-        <v>0.01709219984790973</v>
+        <v>0.01793954041497369</v>
       </c>
       <c r="T7">
-        <v>0.01709219984790973</v>
+        <v>0.01793954041497369</v>
       </c>
     </row>
   </sheetData>
